--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.124</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.288</v>
+        <v>-22.285</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.58</v>
+        <v>-21.57</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.84</v>
+        <v>-21.75</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.7</v>
+        <v>-12.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.26</v>
+        <v>-7.770000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.052</v>
+        <v>-7.775</v>
       </c>
     </row>
     <row r="14">
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.412</v>
+        <v>-13.036</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.314</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.008</v>
+        <v>-22.011</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.931</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.882</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.048</v>
+        <v>-12.911</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.186</v>
+        <v>-12.957</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.276</v>
+        <v>-12.807</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.184</v>
+        <v>-7.379</v>
       </c>
     </row>
     <row r="33">
@@ -942,18 +942,18 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.081999999999999</v>
+        <v>-7.346000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.108</v>
+        <v>-19.841</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.22</v>
+        <v>-12.467</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.674999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.438</v>
+        <v>-8.275</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.786</v>
+        <v>-12.432</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.288</v>
+        <v>-8.088000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.544</v>
+        <v>-22.074</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.514</v>
+        <v>-7.715999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-12.1</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.102</v>
+        <v>-7.613</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48</v>
+        <v>-21.567</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.73</v>
+        <v>-12.685</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.422</v>
+        <v>-20.651</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.808</v>
+        <v>-20.15</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.02</v>
+        <v>-21.818</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.784</v>
+        <v>-22.036</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1611,10 +1611,10 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.772</v>
+        <v>-12.823</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.972</v>
+        <v>-7.581</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-11.914</v>
+        <v>-12.547</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.882000000000001</v>
+        <v>-8.153</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.523999999999999</v>
+        <v>-8.281000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-13.448</v>
+        <v>-11.846</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.368</v>
+        <v>-12.217</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.580000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.758</v>
+        <v>-12.991</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.876</v>
+        <v>-11.728</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.636</v>
+        <v>-12.436</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.296000000000001</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
   </sheetData>
